--- a/dataset-whole-rainfall.xlsx
+++ b/dataset-whole-rainfall.xlsx
@@ -184,7 +184,7 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,7 +262,7 @@
         <v>288.5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>5585.07</v>
+        <v>6688</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -304,7 +304,7 @@
         <v>327</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>6688</v>
+        <v>3734</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -346,7 +346,7 @@
         <v>242</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>4878</v>
+        <v>5246</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>6</v>
@@ -388,7 +388,7 @@
         <v>242</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>4369.38</v>
+        <v>5246</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>6</v>
@@ -430,7 +430,7 @@
         <v>288.5</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>5585.07</v>
+        <v>6688</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>10</v>
@@ -556,7 +556,7 @@
         <v>327</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>5585.07</v>
+        <v>3734</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>10</v>
@@ -598,7 +598,7 @@
         <v>327</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>5585.07</v>
+        <v>3734</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         <v>242</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3734</v>
+        <v>5246</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>12</v>
@@ -808,7 +808,7 @@
         <v>288.5</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>4878</v>
+        <v>6688</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>14</v>
@@ -850,7 +850,7 @@
         <v>242</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>4878</v>
+        <v>5246</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>15</v>
@@ -892,7 +892,7 @@
         <v>242</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>5585.07</v>
+        <v>5246</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>20</v>
@@ -934,7 +934,7 @@
         <v>327</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>5585.07</v>
+        <v>3734</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>20</v>
@@ -976,7 +976,7 @@
         <v>242</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>5585.07</v>
+        <v>5246</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>20</v>
@@ -1018,7 +1018,7 @@
         <v>288.5</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>5585.07</v>
+        <v>6688</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>20</v>
@@ -1060,7 +1060,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>5585.07</v>
+        <v>3734</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>20</v>
@@ -1102,7 +1102,7 @@
         <v>288.5</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>5585.07</v>
+        <v>6688</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>20</v>
@@ -1144,7 +1144,7 @@
         <v>327</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>5585.07</v>
+        <v>3734</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>20</v>
@@ -1186,7 +1186,7 @@
         <v>327</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>270</v>
+        <v>3734</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>20</v>
@@ -1228,7 +1228,7 @@
         <v>288.5</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>4878</v>
+        <v>5585.07</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>20</v>
@@ -1270,7 +1270,7 @@
         <v>288.5</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>4878</v>
+        <v>5585.07</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>20</v>
@@ -1396,7 +1396,7 @@
         <v>242</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>4369.38</v>
+        <v>5246</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>24</v>
@@ -3538,7 +3538,7 @@
         <v>288.5</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>2736.5</v>
+        <v>4369.38</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>50</v>
@@ -3580,7 +3580,7 @@
         <v>242</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>2736.5</v>
+        <v>5585.07</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>50</v>
@@ -4000,7 +4000,7 @@
         <v>288.5</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>270</v>
+        <v>5585.07</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>55</v>
@@ -4378,7 +4378,7 @@
         <v>242</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>270</v>
+        <v>5585.07</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>60</v>
@@ -4840,7 +4840,7 @@
         <v>165.5</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>270</v>
+        <v>5277.83</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>80</v>
@@ -4882,7 +4882,7 @@
         <v>101.5</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>270</v>
+        <v>2736.5</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>80</v>
@@ -4924,7 +4924,7 @@
         <v>101.5</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>4369.38</v>
+        <v>2736.5</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>85</v>
@@ -4966,7 +4966,7 @@
         <v>101.5</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>90</v>
@@ -5302,7 +5302,7 @@
         <v>101.5</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>110</v>
@@ -5344,7 +5344,7 @@
         <v>101.5</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>110</v>
@@ -5470,7 +5470,7 @@
         <v>101.5</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J126" s="0" t="n">
         <v>112</v>
@@ -5512,7 +5512,7 @@
         <v>101.5</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J127" s="0" t="n">
         <v>120</v>
@@ -5554,7 +5554,7 @@
         <v>101.5</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J128" s="0" t="n">
         <v>120</v>
@@ -5638,7 +5638,7 @@
         <v>101.5</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>130</v>
@@ -5680,7 +5680,7 @@
         <v>101.5</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J131" s="0" t="n">
         <v>140</v>
@@ -5722,7 +5722,7 @@
         <v>101.5</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J132" s="0" t="n">
         <v>140</v>
@@ -5764,7 +5764,7 @@
         <v>101.5</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>3734</v>
+        <v>2736.5</v>
       </c>
       <c r="J133" s="0" t="n">
         <v>150</v>
@@ -5806,7 +5806,7 @@
         <v>101.5</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J134" s="0" t="n">
         <v>150</v>
@@ -5848,7 +5848,7 @@
         <v>101.5</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J135" s="0" t="n">
         <v>150</v>
@@ -5890,7 +5890,7 @@
         <v>101.5</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J136" s="0" t="n">
         <v>150</v>
@@ -5932,7 +5932,7 @@
         <v>101.5</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>4878</v>
+        <v>2736.5</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>150</v>
@@ -5974,7 +5974,7 @@
         <v>101.5</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>5585.07</v>
+        <v>2736.5</v>
       </c>
       <c r="J138" s="0" t="n">
         <v>150</v>
@@ -6058,7 +6058,7 @@
         <v>27.5</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J140" s="0" t="n">
         <v>170</v>
@@ -6100,7 +6100,7 @@
         <v>27.5</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>5585.07</v>
+        <v>270</v>
       </c>
       <c r="J141" s="0" t="n">
         <v>200</v>
@@ -6142,7 +6142,7 @@
         <v>27.5</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J142" s="0" t="n">
         <v>200</v>
@@ -6184,7 +6184,7 @@
         <v>27.5</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J143" s="0" t="n">
         <v>200</v>
@@ -6226,7 +6226,7 @@
         <v>27.5</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J144" s="0" t="n">
         <v>200</v>
@@ -6268,7 +6268,7 @@
         <v>27.5</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J145" s="0" t="n">
         <v>200</v>
@@ -6310,7 +6310,7 @@
         <v>27.5</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J146" s="0" t="n">
         <v>200</v>
@@ -6352,7 +6352,7 @@
         <v>27.5</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>6688</v>
+        <v>270</v>
       </c>
       <c r="J147" s="0" t="n">
         <v>200</v>
@@ -6478,7 +6478,7 @@
         <v>27.5</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>5585.07</v>
+        <v>270</v>
       </c>
       <c r="J150" s="0" t="n">
         <v>300</v>
@@ -6520,7 +6520,7 @@
         <v>27.5</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>5246</v>
+        <v>270</v>
       </c>
       <c r="J151" s="0" t="n">
         <v>300</v>

--- a/dataset-whole-rainfall.xlsx
+++ b/dataset-whole-rainfall.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Bathing</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rainfall_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River_Distance</t>
   </si>
 </sst>
 </file>
@@ -181,17 +184,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="15" style="0" width="10.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -235,6 +240,9 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -277,6 +285,9 @@
         <f aca="false">PRODUCT(H2,L2)</f>
         <v>865.5</v>
       </c>
+      <c r="N2" s="2" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -319,6 +330,9 @@
         <f aca="false">PRODUCT(H3,L3)</f>
         <v>981</v>
       </c>
+      <c r="N3" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -361,6 +375,9 @@
         <f aca="false">PRODUCT(H4,L4)</f>
         <v>726</v>
       </c>
+      <c r="N4" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -403,6 +420,9 @@
         <f aca="false">PRODUCT(H5,L5)</f>
         <v>484</v>
       </c>
+      <c r="N5" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -445,6 +465,9 @@
         <f aca="false">PRODUCT(H6,L6)</f>
         <v>865.5</v>
       </c>
+      <c r="N6" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -487,6 +510,9 @@
         <f aca="false">PRODUCT(H7,L7)</f>
         <v>1308</v>
       </c>
+      <c r="N7" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -529,6 +555,9 @@
         <f aca="false">PRODUCT(H8,L8)</f>
         <v>981</v>
       </c>
+      <c r="N8" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -571,6 +600,9 @@
         <f aca="false">PRODUCT(H9,L9)</f>
         <v>327</v>
       </c>
+      <c r="N9" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -613,6 +645,9 @@
         <f aca="false">PRODUCT(H10,L10)</f>
         <v>981</v>
       </c>
+      <c r="N10" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -655,6 +690,9 @@
         <f aca="false">PRODUCT(H11,L11)</f>
         <v>726</v>
       </c>
+      <c r="N11" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -697,6 +735,9 @@
         <f aca="false">PRODUCT(H12,L12)</f>
         <v>981</v>
       </c>
+      <c r="N12" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -739,6 +780,9 @@
         <f aca="false">PRODUCT(H13,L13)</f>
         <v>981</v>
       </c>
+      <c r="N13" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -781,6 +825,9 @@
         <f aca="false">PRODUCT(H14,L14)</f>
         <v>981</v>
       </c>
+      <c r="N14" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -823,6 +870,9 @@
         <f aca="false">PRODUCT(H15,L15)</f>
         <v>865.5</v>
       </c>
+      <c r="N15" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -865,6 +915,9 @@
         <f aca="false">PRODUCT(H16,L16)</f>
         <v>726</v>
       </c>
+      <c r="N16" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -907,6 +960,9 @@
         <f aca="false">PRODUCT(H17,L17)</f>
         <v>726</v>
       </c>
+      <c r="N17" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -949,6 +1005,9 @@
         <f aca="false">PRODUCT(H18,L18)</f>
         <v>981</v>
       </c>
+      <c r="N18" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -991,6 +1050,9 @@
         <f aca="false">PRODUCT(H19,L19)</f>
         <v>726</v>
       </c>
+      <c r="N19" s="2" t="n">
+        <v>30.48</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1033,6 +1095,9 @@
         <f aca="false">PRODUCT(H20,L20)</f>
         <v>865.5</v>
       </c>
+      <c r="N20" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1075,6 +1140,9 @@
         <f aca="false">PRODUCT(H21,L21)</f>
         <v>981</v>
       </c>
+      <c r="N21" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1117,6 +1185,9 @@
         <f aca="false">PRODUCT(H22,L22)</f>
         <v>865.5</v>
       </c>
+      <c r="N22" s="2" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1159,6 +1230,9 @@
         <f aca="false">PRODUCT(H23,L23)</f>
         <v>981</v>
       </c>
+      <c r="N23" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1201,6 +1275,9 @@
         <f aca="false">PRODUCT(H24,L24)</f>
         <v>654</v>
       </c>
+      <c r="N24" s="2" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -1243,6 +1320,9 @@
         <f aca="false">PRODUCT(H25,L25)</f>
         <v>865.5</v>
       </c>
+      <c r="N25" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -1285,6 +1365,9 @@
         <f aca="false">PRODUCT(H26,L26)</f>
         <v>865.5</v>
       </c>
+      <c r="N26" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1327,6 +1410,9 @@
         <f aca="false">PRODUCT(H27,L27)</f>
         <v>288.5</v>
       </c>
+      <c r="N27" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -1369,6 +1455,9 @@
         <f aca="false">PRODUCT(H28,L28)</f>
         <v>865.5</v>
       </c>
+      <c r="N28" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -1411,6 +1500,9 @@
         <f aca="false">PRODUCT(H29,L29)</f>
         <v>726</v>
       </c>
+      <c r="N29" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -1453,6 +1545,9 @@
         <f aca="false">PRODUCT(H30,L30)</f>
         <v>865.5</v>
       </c>
+      <c r="N30" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -1495,6 +1590,9 @@
         <f aca="false">PRODUCT(H31,L31)</f>
         <v>726</v>
       </c>
+      <c r="N31" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -1537,6 +1635,9 @@
         <f aca="false">PRODUCT(H32,L32)</f>
         <v>865.5</v>
       </c>
+      <c r="N32" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -1579,6 +1680,9 @@
         <f aca="false">PRODUCT(H33,L33)</f>
         <v>865.5</v>
       </c>
+      <c r="N33" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -1621,6 +1725,9 @@
         <f aca="false">PRODUCT(H34,L34)</f>
         <v>865.5</v>
       </c>
+      <c r="N34" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -1663,6 +1770,9 @@
         <f aca="false">PRODUCT(H35,L35)</f>
         <v>726</v>
       </c>
+      <c r="N35" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -1705,6 +1815,9 @@
         <f aca="false">PRODUCT(H36,L36)</f>
         <v>865.5</v>
       </c>
+      <c r="N36" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -1747,6 +1860,9 @@
         <f aca="false">PRODUCT(H37,L37)</f>
         <v>865.5</v>
       </c>
+      <c r="N37" s="2" t="n">
+        <v>18.28</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -1789,6 +1905,9 @@
         <f aca="false">PRODUCT(H38,L38)</f>
         <v>242</v>
       </c>
+      <c r="N38" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -1831,6 +1950,9 @@
         <f aca="false">PRODUCT(H39,L39)</f>
         <v>726</v>
       </c>
+      <c r="N39" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -1873,6 +1995,9 @@
         <f aca="false">PRODUCT(H40,L40)</f>
         <v>726</v>
       </c>
+      <c r="N40" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -1915,6 +2040,9 @@
         <f aca="false">PRODUCT(H41,L41)</f>
         <v>865.5</v>
       </c>
+      <c r="N41" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -1957,6 +2085,9 @@
         <f aca="false">PRODUCT(H42,L42)</f>
         <v>1442.5</v>
       </c>
+      <c r="N42" s="2" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -1999,6 +2130,9 @@
         <f aca="false">PRODUCT(H43,L43)</f>
         <v>865.5</v>
       </c>
+      <c r="N43" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -2041,6 +2175,9 @@
         <f aca="false">PRODUCT(H44,L44)</f>
         <v>577</v>
       </c>
+      <c r="N44" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -2083,6 +2220,9 @@
         <f aca="false">PRODUCT(H45,L45)</f>
         <v>726</v>
       </c>
+      <c r="N45" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -2125,6 +2265,9 @@
         <f aca="false">PRODUCT(H46,L46)</f>
         <v>726</v>
       </c>
+      <c r="N46" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -2167,6 +2310,9 @@
         <f aca="false">PRODUCT(H47,L47)</f>
         <v>726</v>
       </c>
+      <c r="N47" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -2209,6 +2355,9 @@
         <f aca="false">PRODUCT(H48,L48)</f>
         <v>726</v>
       </c>
+      <c r="N48" s="2" t="n">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -2251,6 +2400,9 @@
         <f aca="false">PRODUCT(H49,L49)</f>
         <v>865.5</v>
       </c>
+      <c r="N49" s="2" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -2293,6 +2445,9 @@
         <f aca="false">PRODUCT(H50,L50)</f>
         <v>577</v>
       </c>
+      <c r="N50" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -2335,6 +2490,9 @@
         <f aca="false">PRODUCT(H51,L51)</f>
         <v>288.5</v>
       </c>
+      <c r="N51" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -2377,6 +2535,9 @@
         <f aca="false">PRODUCT(H52,L52)</f>
         <v>865.5</v>
       </c>
+      <c r="N52" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -2419,6 +2580,9 @@
         <f aca="false">PRODUCT(H53,L53)</f>
         <v>865.5</v>
       </c>
+      <c r="N53" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -2461,6 +2625,9 @@
         <f aca="false">PRODUCT(H54,L54)</f>
         <v>484</v>
       </c>
+      <c r="N54" s="2" t="n">
+        <v>91.44</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -2503,6 +2670,9 @@
         <f aca="false">PRODUCT(H55,L55)</f>
         <v>865.5</v>
       </c>
+      <c r="N55" s="2" t="n">
+        <v>91.44</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -2545,6 +2715,9 @@
         <f aca="false">PRODUCT(H56,L56)</f>
         <v>865.5</v>
       </c>
+      <c r="N56" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -2587,6 +2760,9 @@
         <f aca="false">PRODUCT(H57,L57)</f>
         <v>865.5</v>
       </c>
+      <c r="N57" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -2629,6 +2805,9 @@
         <f aca="false">PRODUCT(H58,L58)</f>
         <v>726</v>
       </c>
+      <c r="N58" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -2671,6 +2850,9 @@
         <f aca="false">PRODUCT(H59,L59)</f>
         <v>726</v>
       </c>
+      <c r="N59" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -2713,6 +2895,9 @@
         <f aca="false">PRODUCT(H60,L60)</f>
         <v>865.5</v>
       </c>
+      <c r="N60" s="2" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -2755,6 +2940,9 @@
         <f aca="false">PRODUCT(H61,L61)</f>
         <v>726</v>
       </c>
+      <c r="N61" s="2" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -2797,6 +2985,9 @@
         <f aca="false">PRODUCT(H62,L62)</f>
         <v>484</v>
       </c>
+      <c r="N62" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -2839,6 +3030,9 @@
         <f aca="false">PRODUCT(H63,L63)</f>
         <v>865.5</v>
       </c>
+      <c r="N63" s="2" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -2881,6 +3075,9 @@
         <f aca="false">PRODUCT(H64,L64)</f>
         <v>865.5</v>
       </c>
+      <c r="N64" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -2923,6 +3120,9 @@
         <f aca="false">PRODUCT(H65,L65)</f>
         <v>726</v>
       </c>
+      <c r="N65" s="2" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -2965,6 +3165,9 @@
         <f aca="false">PRODUCT(H66,L66)</f>
         <v>726</v>
       </c>
+      <c r="N66" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -3007,6 +3210,9 @@
         <f aca="false">PRODUCT(H67,L67)</f>
         <v>726</v>
       </c>
+      <c r="N67" s="2" t="n">
+        <v>7000</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -3049,6 +3255,9 @@
         <f aca="false">PRODUCT(H68,L68)</f>
         <v>726</v>
       </c>
+      <c r="N68" s="2" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -3091,6 +3300,9 @@
         <f aca="false">PRODUCT(H69,L69)</f>
         <v>726</v>
       </c>
+      <c r="N69" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -3133,6 +3345,9 @@
         <f aca="false">PRODUCT(H70,L70)</f>
         <v>577</v>
       </c>
+      <c r="N70" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -3175,6 +3390,9 @@
         <f aca="false">PRODUCT(H71,L71)</f>
         <v>484</v>
       </c>
+      <c r="N71" s="2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -3217,6 +3435,9 @@
         <f aca="false">PRODUCT(H72,L72)</f>
         <v>865.5</v>
       </c>
+      <c r="N72" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -3259,6 +3480,9 @@
         <f aca="false">PRODUCT(H73,L73)</f>
         <v>865.5</v>
       </c>
+      <c r="N73" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -3301,6 +3525,9 @@
         <f aca="false">PRODUCT(H74,L74)</f>
         <v>288.5</v>
       </c>
+      <c r="N74" s="2" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -3343,6 +3570,9 @@
         <f aca="false">PRODUCT(H75,L75)</f>
         <v>726</v>
       </c>
+      <c r="N75" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -3385,6 +3615,9 @@
         <f aca="false">PRODUCT(H76,L76)</f>
         <v>865.5</v>
       </c>
+      <c r="N76" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -3427,6 +3660,9 @@
         <f aca="false">PRODUCT(H77,L77)</f>
         <v>865.5</v>
       </c>
+      <c r="N77" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -3469,6 +3705,9 @@
         <f aca="false">PRODUCT(H78,L78)</f>
         <v>865.5</v>
       </c>
+      <c r="N78" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -3511,6 +3750,9 @@
         <f aca="false">PRODUCT(H79,L79)</f>
         <v>726</v>
       </c>
+      <c r="N79" s="2" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -3553,6 +3795,9 @@
         <f aca="false">PRODUCT(H80,L80)</f>
         <v>865.5</v>
       </c>
+      <c r="N80" s="2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -3595,6 +3840,9 @@
         <f aca="false">PRODUCT(H81,L81)</f>
         <v>726</v>
       </c>
+      <c r="N81" s="2" t="n">
+        <v>24.32</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -3637,6 +3885,9 @@
         <f aca="false">PRODUCT(H82,L82)</f>
         <v>865.5</v>
       </c>
+      <c r="N82" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -3679,6 +3930,9 @@
         <f aca="false">PRODUCT(H83,L83)</f>
         <v>726</v>
       </c>
+      <c r="N83" s="2" t="n">
+        <v>60.96</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -3721,6 +3975,9 @@
         <f aca="false">PRODUCT(H84,L84)</f>
         <v>865.5</v>
       </c>
+      <c r="N84" s="2" t="n">
+        <v>91.44</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -3763,6 +4020,9 @@
         <f aca="false">PRODUCT(H85,L85)</f>
         <v>865.5</v>
       </c>
+      <c r="N85" s="2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -3805,6 +4065,9 @@
         <f aca="false">PRODUCT(H86,L86)</f>
         <v>242</v>
       </c>
+      <c r="N86" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -3847,6 +4110,9 @@
         <f aca="false">PRODUCT(H87,L87)</f>
         <v>577</v>
       </c>
+      <c r="N87" s="2" t="n">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -3889,6 +4155,9 @@
         <f aca="false">PRODUCT(H88,L88)</f>
         <v>726</v>
       </c>
+      <c r="N88" s="2" t="n">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -3931,6 +4200,9 @@
         <f aca="false">PRODUCT(H89,L89)</f>
         <v>726</v>
       </c>
+      <c r="N89" s="2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -3973,6 +4245,9 @@
         <f aca="false">PRODUCT(H90,L90)</f>
         <v>865.5</v>
       </c>
+      <c r="N90" s="2" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -4015,6 +4290,9 @@
         <f aca="false">PRODUCT(H91,L91)</f>
         <v>865.5</v>
       </c>
+      <c r="N91" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -4057,6 +4335,9 @@
         <f aca="false">PRODUCT(H92,L92)</f>
         <v>865.5</v>
       </c>
+      <c r="N92" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -4099,6 +4380,9 @@
         <f aca="false">PRODUCT(H93,L93)</f>
         <v>726</v>
       </c>
+      <c r="N93" s="2" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -4141,6 +4425,9 @@
         <f aca="false">PRODUCT(H94,L94)</f>
         <v>726</v>
       </c>
+      <c r="N94" s="2" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -4183,6 +4470,9 @@
         <f aca="false">PRODUCT(H95,L95)</f>
         <v>1442.5</v>
       </c>
+      <c r="N95" s="2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -4225,6 +4515,9 @@
         <f aca="false">PRODUCT(H96,L96)</f>
         <v>726</v>
       </c>
+      <c r="N96" s="2" t="n">
+        <v>30.48</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -4267,6 +4560,9 @@
         <f aca="false">PRODUCT(H97,L97)</f>
         <v>726</v>
       </c>
+      <c r="N97" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -4309,6 +4605,9 @@
         <f aca="false">PRODUCT(H98,L98)</f>
         <v>288.5</v>
       </c>
+      <c r="N98" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -4351,6 +4650,9 @@
         <f aca="false">PRODUCT(H99,L99)</f>
         <v>865.5</v>
       </c>
+      <c r="N99" s="2" t="n">
+        <v>7000</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
@@ -4393,6 +4695,9 @@
         <f aca="false">PRODUCT(H100,L100)</f>
         <v>726</v>
       </c>
+      <c r="N100" s="2" t="n">
+        <v>60.96</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
@@ -4435,6 +4740,9 @@
         <f aca="false">PRODUCT(H101,L101)</f>
         <v>484</v>
       </c>
+      <c r="N101" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -4477,6 +4785,9 @@
         <f aca="false">PRODUCT(H102,L102)</f>
         <v>726</v>
       </c>
+      <c r="N102" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -4519,6 +4830,9 @@
         <f aca="false">PRODUCT(H103,L103)</f>
         <v>484</v>
       </c>
+      <c r="N103" s="2" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -4561,6 +4875,9 @@
         <f aca="false">PRODUCT(H104,L104)</f>
         <v>865.5</v>
       </c>
+      <c r="N104" s="2" t="n">
+        <v>45.72</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -4603,6 +4920,9 @@
         <f aca="false">PRODUCT(H105,L105)</f>
         <v>865.5</v>
       </c>
+      <c r="N105" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -4645,6 +4965,9 @@
         <f aca="false">PRODUCT(H106,L106)</f>
         <v>865.5</v>
       </c>
+      <c r="N106" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -4687,6 +5010,9 @@
         <f aca="false">PRODUCT(H107,L107)</f>
         <v>577</v>
       </c>
+      <c r="N107" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -4729,6 +5055,9 @@
         <f aca="false">PRODUCT(H108,L108)</f>
         <v>484</v>
       </c>
+      <c r="N108" s="2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -4771,6 +5100,9 @@
         <f aca="false">PRODUCT(H109,L109)</f>
         <v>865.5</v>
       </c>
+      <c r="N109" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -4813,6 +5145,9 @@
         <f aca="false">PRODUCT(H110,L110)</f>
         <v>865.5</v>
       </c>
+      <c r="N110" s="2" t="n">
+        <v>304.8</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -4855,6 +5190,9 @@
         <f aca="false">PRODUCT(H111,L111)</f>
         <v>496.5</v>
       </c>
+      <c r="N111" s="2" t="n">
+        <v>91.44</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -4897,6 +5235,9 @@
         <f aca="false">PRODUCT(H112,L112)</f>
         <v>304.5</v>
       </c>
+      <c r="N112" s="2" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -4939,6 +5280,9 @@
         <f aca="false">PRODUCT(H113,L113)</f>
         <v>203</v>
       </c>
+      <c r="N113" s="2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -4981,6 +5325,9 @@
         <f aca="false">PRODUCT(H114,L114)</f>
         <v>101.5</v>
       </c>
+      <c r="N114" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -5023,6 +5370,9 @@
         <f aca="false">PRODUCT(H115,L115)</f>
         <v>865.5</v>
       </c>
+      <c r="N115" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -5065,6 +5415,9 @@
         <f aca="false">PRODUCT(H116,L116)</f>
         <v>304.5</v>
       </c>
+      <c r="N116" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -5107,6 +5460,9 @@
         <f aca="false">PRODUCT(H117,L117)</f>
         <v>304.5</v>
       </c>
+      <c r="N117" s="2" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -5149,6 +5505,9 @@
         <f aca="false">PRODUCT(H118,L118)</f>
         <v>496.5</v>
       </c>
+      <c r="N118" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -5191,6 +5550,9 @@
         <f aca="false">PRODUCT(H119,L119)</f>
         <v>165.5</v>
       </c>
+      <c r="N119" s="2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -5233,6 +5595,9 @@
         <f aca="false">PRODUCT(H120,L120)</f>
         <v>242</v>
       </c>
+      <c r="N120" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -5275,6 +5640,9 @@
         <f aca="false">PRODUCT(H121,L121)</f>
         <v>865.5</v>
       </c>
+      <c r="N121" s="2" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -5317,6 +5685,9 @@
         <f aca="false">PRODUCT(H122,L122)</f>
         <v>101.5</v>
       </c>
+      <c r="N122" s="2" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -5359,6 +5730,9 @@
         <f aca="false">PRODUCT(H123,L123)</f>
         <v>304.5</v>
       </c>
+      <c r="N123" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -5401,6 +5775,9 @@
         <f aca="false">PRODUCT(H124,L124)</f>
         <v>484</v>
       </c>
+      <c r="N124" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -5443,6 +5820,9 @@
         <f aca="false">PRODUCT(H125,L125)</f>
         <v>484</v>
       </c>
+      <c r="N125" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -5485,6 +5865,9 @@
         <f aca="false">PRODUCT(H126,L126)</f>
         <v>101.5</v>
       </c>
+      <c r="N126" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -5527,6 +5910,9 @@
         <f aca="false">PRODUCT(H127,L127)</f>
         <v>101.5</v>
       </c>
+      <c r="N127" s="2" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -5569,6 +5955,9 @@
         <f aca="false">PRODUCT(H128,L128)</f>
         <v>304.5</v>
       </c>
+      <c r="N128" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -5611,6 +6000,9 @@
         <f aca="false">PRODUCT(H129,L129)</f>
         <v>726</v>
       </c>
+      <c r="N129" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -5653,6 +6045,9 @@
         <f aca="false">PRODUCT(H130,L130)</f>
         <v>203</v>
       </c>
+      <c r="N130" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -5695,6 +6090,9 @@
         <f aca="false">PRODUCT(H131,L131)</f>
         <v>304.5</v>
       </c>
+      <c r="N131" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -5737,6 +6135,9 @@
         <f aca="false">PRODUCT(H132,L132)</f>
         <v>304.5</v>
       </c>
+      <c r="N132" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -5779,6 +6180,9 @@
         <f aca="false">PRODUCT(H133,L133)</f>
         <v>304.5</v>
       </c>
+      <c r="N133" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -5821,6 +6225,9 @@
         <f aca="false">PRODUCT(H134,L134)</f>
         <v>304.5</v>
       </c>
+      <c r="N134" s="2" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -5863,6 +6270,9 @@
         <f aca="false">PRODUCT(H135,L135)</f>
         <v>304.5</v>
       </c>
+      <c r="N135" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -5905,6 +6315,9 @@
         <f aca="false">PRODUCT(H136,L136)</f>
         <v>304.5</v>
       </c>
+      <c r="N136" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -5947,6 +6360,9 @@
         <f aca="false">PRODUCT(H137,L137)</f>
         <v>304.5</v>
       </c>
+      <c r="N137" s="2" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -5989,6 +6405,9 @@
         <f aca="false">PRODUCT(H138,L138)</f>
         <v>304.5</v>
       </c>
+      <c r="N138" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
@@ -6031,6 +6450,9 @@
         <f aca="false">PRODUCT(H139,L139)</f>
         <v>101.5</v>
       </c>
+      <c r="N139" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -6073,6 +6495,9 @@
         <f aca="false">PRODUCT(H140,L140)</f>
         <v>82.5</v>
       </c>
+      <c r="N140" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -6115,6 +6540,9 @@
         <f aca="false">PRODUCT(H141,L141)</f>
         <v>82.5</v>
       </c>
+      <c r="N141" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -6157,6 +6585,9 @@
         <f aca="false">PRODUCT(H142,L142)</f>
         <v>82.5</v>
       </c>
+      <c r="N142" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -6199,6 +6630,9 @@
         <f aca="false">PRODUCT(H143,L143)</f>
         <v>82.5</v>
       </c>
+      <c r="N143" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -6241,6 +6675,9 @@
         <f aca="false">PRODUCT(H144,L144)</f>
         <v>82.5</v>
       </c>
+      <c r="N144" s="2" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -6283,6 +6720,9 @@
         <f aca="false">PRODUCT(H145,L145)</f>
         <v>82.5</v>
       </c>
+      <c r="N145" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -6325,6 +6765,9 @@
         <f aca="false">PRODUCT(H146,L146)</f>
         <v>82.5</v>
       </c>
+      <c r="N146" s="2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -6367,6 +6810,9 @@
         <f aca="false">PRODUCT(H147,L147)</f>
         <v>82.5</v>
       </c>
+      <c r="N147" s="2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -6409,6 +6855,9 @@
         <f aca="false">PRODUCT(H148,L148)</f>
         <v>82.5</v>
       </c>
+      <c r="N148" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -6451,6 +6900,9 @@
         <f aca="false">PRODUCT(H149,L149)</f>
         <v>82.5</v>
       </c>
+      <c r="N149" s="2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -6493,6 +6945,9 @@
         <f aca="false">PRODUCT(H150,L150)</f>
         <v>82.5</v>
       </c>
+      <c r="N150" s="2" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -6534,6 +6989,9 @@
       <c r="M151" s="3" t="n">
         <f aca="false">PRODUCT(H151,L151)</f>
         <v>110</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
